--- a/data/2017/Fell/Extracted Boulsworth.xlsx
+++ b/data/2017/Fell/Extracted Boulsworth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2017\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41263798-0C15-409A-8E20-FFCBF435747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6970B5C-2C43-4DB6-A9F3-F09AD9983499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="168">
   <si>
     <t>Vet</t>
   </si>
@@ -352,18 +352,6 @@
     <t>Steve</t>
   </si>
   <si>
-    <t>Lee Mill</t>
-  </si>
-  <si>
-    <t>Clougha Pike</t>
-  </si>
-  <si>
-    <t>Leo Pollard Memorial</t>
-  </si>
-  <si>
-    <t>Pendle</t>
-  </si>
-  <si>
     <t>Oliver</t>
   </si>
   <si>
@@ -823,6 +811,88 @@
   </si>
   <si>
     <t>Graham Michael</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Preston</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Red Rose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chorley</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wesham</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lytham</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blackpool</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thornton</t>
+    </r>
+  </si>
+  <si>
+    <t>Cake Race</t>
+  </si>
+  <si>
+    <t>Walsh Two Lads</t>
+  </si>
+  <si>
+    <t>Bull Hill</t>
+  </si>
+  <si>
+    <t>Boulsworth</t>
   </si>
 </sst>
 </file>
@@ -934,10 +1004,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.5"/>
       <name val="Carlito"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1084,9 +1152,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1095,6 +1160,9 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1112,8 +1180,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1711,7 +1779,7 @@
     </row>
     <row r="4" spans="1:15" ht="11.45" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>5</v>
       </c>
       <c r="C4" s="23">
@@ -1721,25 +1789,25 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="I4" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L4" s="8"/>
       <c r="N4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="11.45" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>6</v>
       </c>
       <c r="C5" s="23">
@@ -1749,25 +1817,25 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="I5" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L5" s="8"/>
       <c r="N5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="11.45" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>31</v>
       </c>
       <c r="C6" s="23">
@@ -1780,22 +1848,22 @@
         <v>56</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L6" s="8"/>
       <c r="N6" s="24" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="15" customFormat="1" ht="11.45" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>37</v>
       </c>
       <c r="C7" s="23">
@@ -1824,12 +1892,12 @@
         <v>44</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="11.45" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>38</v>
       </c>
       <c r="C8" s="23">
@@ -1843,10 +1911,10 @@
       </c>
       <c r="F8" s="28"/>
       <c r="I8" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>41</v>
@@ -1856,12 +1924,12 @@
         <v>45</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="11.45" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>39</v>
       </c>
       <c r="C9" s="23">
@@ -1878,22 +1946,22 @@
         <v>50</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L9" s="8"/>
       <c r="N9" s="24" t="s">
         <v>44</v>
       </c>
       <c r="O9" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="11.45" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>42</v>
       </c>
       <c r="C10" s="23">
@@ -1905,10 +1973,10 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="I10" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>40</v>
@@ -1918,12 +1986,12 @@
         <v>45</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.45" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>46</v>
       </c>
       <c r="C11" s="23">
@@ -1933,25 +2001,25 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="I11" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L11" s="8"/>
       <c r="N11" s="24" t="s">
         <v>44</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="11.45" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>49</v>
       </c>
       <c r="C12" s="23">
@@ -1964,25 +2032,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L12" s="8"/>
       <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="11.45" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>50</v>
       </c>
       <c r="C13" s="23">
@@ -1994,25 +2062,25 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="I13" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L13" s="8"/>
       <c r="N13" s="24" t="s">
         <v>45</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="11.45" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>51</v>
       </c>
       <c r="C14" s="23">
@@ -2026,10 +2094,10 @@
       </c>
       <c r="F14" s="28"/>
       <c r="I14" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>41</v>
@@ -2039,12 +2107,12 @@
         <v>43</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="11.45" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>60</v>
       </c>
       <c r="C15" s="23">
@@ -2057,22 +2125,22 @@
         <v>50</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L15" s="8"/>
       <c r="N15" s="24" t="s">
         <v>43</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="11.45" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>68</v>
       </c>
       <c r="C16" s="23">
@@ -2086,10 +2154,10 @@
       </c>
       <c r="F16" s="28"/>
       <c r="I16" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>41</v>
@@ -2099,12 +2167,12 @@
         <v>43</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="11.45" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>70</v>
       </c>
       <c r="C17" s="23">
@@ -2131,12 +2199,12 @@
         <v>43</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="11.45" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>79</v>
       </c>
       <c r="C18" s="23">
@@ -2155,7 +2223,7 @@
         <v>50</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>42</v>
@@ -2165,12 +2233,12 @@
         <v>46</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="11.45" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>83</v>
       </c>
       <c r="C19" s="23">
@@ -2184,25 +2252,25 @@
       </c>
       <c r="F19" s="28"/>
       <c r="I19" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L19" s="8"/>
       <c r="N19" s="24" t="s">
         <v>46</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="11.45" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>91</v>
       </c>
       <c r="C20" s="23">
@@ -2218,10 +2286,10 @@
         <v>2</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>42</v>
@@ -2231,12 +2299,12 @@
         <v>43</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="11.45" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>101</v>
       </c>
       <c r="C21" s="23">
@@ -2252,10 +2320,10 @@
         <v>3</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>55</v>
@@ -2265,12 +2333,12 @@
         <v>44</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="11.45" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>102</v>
       </c>
       <c r="C22" s="23">
@@ -2296,13 +2364,13 @@
       <c r="N22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="38">
         <v>4.1666670000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="11.45" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>104</v>
       </c>
       <c r="C23" s="23">
@@ -2319,22 +2387,22 @@
         <v>49</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L23" s="8"/>
       <c r="N23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="45">
+      <c r="O23" s="38">
         <v>4.2037039999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="11.45" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>109</v>
       </c>
       <c r="C24" s="23">
@@ -2350,10 +2418,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>42</v>
@@ -2362,13 +2430,13 @@
       <c r="N24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="38">
         <v>4.2534719999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="11.45" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>134</v>
       </c>
       <c r="C25" s="23">
@@ -2382,10 +2450,10 @@
       </c>
       <c r="F25" s="28"/>
       <c r="I25" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>41</v>
@@ -2394,13 +2462,13 @@
       <c r="N25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="38">
         <v>4.5081019999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="11.45" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>135</v>
       </c>
       <c r="C26" s="23">
@@ -2415,7 +2483,7 @@
         <v>51</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K26" s="25" t="s">
         <v>40</v>
@@ -2424,13 +2492,13 @@
       <c r="N26" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="38">
         <v>4.5104169999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="11.45" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>137</v>
       </c>
       <c r="C27" s="23">
@@ -2458,13 +2526,13 @@
       <c r="N27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="38">
         <v>4.5509260000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.45" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>148</v>
       </c>
       <c r="C28" s="23">
@@ -2478,10 +2546,10 @@
       </c>
       <c r="F28" s="28"/>
       <c r="I28" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>41</v>
@@ -2490,13 +2558,13 @@
       <c r="N28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="38">
         <v>4.6944439999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="11.45" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>149</v>
       </c>
       <c r="C29" s="23">
@@ -2511,25 +2579,25 @@
         <v>2</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L29" s="8"/>
       <c r="N29" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="38">
         <v>4.7094909999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="11.45" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>151</v>
       </c>
       <c r="C30" s="23">
@@ -2546,25 +2614,25 @@
         <v>3</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L30" s="8"/>
       <c r="N30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="38">
         <v>4.7557870000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="11.45" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>155</v>
       </c>
       <c r="C31" s="23">
@@ -2590,13 +2658,13 @@
       <c r="N31" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="38">
         <v>4.8703700000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="11.45" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>156</v>
       </c>
       <c r="C32" s="23">
@@ -2611,25 +2679,25 @@
         <v>4</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L32" s="8"/>
       <c r="N32" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="45">
+      <c r="O32" s="38">
         <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="11.45" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>161</v>
       </c>
       <c r="C33" s="23">
@@ -2646,7 +2714,7 @@
         <v>50</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>41</v>
@@ -2655,13 +2723,13 @@
       <c r="N33" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="38">
         <v>4.9537039999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="11.45" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>163</v>
       </c>
       <c r="C34" s="23">
@@ -2689,13 +2757,13 @@
       <c r="N34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="45">
+      <c r="O34" s="38">
         <v>5.0185189999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="11.45" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>165</v>
       </c>
       <c r="C35" s="23">
@@ -2708,25 +2776,25 @@
         <v>5</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L35" s="8"/>
       <c r="N35" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="38">
         <v>5.0266199999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="11.45" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>169</v>
       </c>
       <c r="C36" s="23">
@@ -2743,25 +2811,25 @@
         <v>6</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L36" s="8"/>
       <c r="N36" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="38">
         <v>5.0856480000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="11.45" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>171</v>
       </c>
       <c r="C37" s="23">
@@ -2776,25 +2844,25 @@
         <v>7</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L37" s="8"/>
       <c r="N37" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="O37" s="45">
+      <c r="O37" s="38">
         <v>5.1307869999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="11.45" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>181</v>
       </c>
       <c r="C38" s="23">
@@ -2811,25 +2879,25 @@
         <v>8</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L38" s="8"/>
       <c r="N38" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="38">
         <v>5.3194440000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="11.45" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>183</v>
       </c>
       <c r="C39" s="23">
@@ -2842,25 +2910,25 @@
         <v>9</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L39" s="8"/>
       <c r="N39" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="45">
+      <c r="O39" s="38">
         <v>5.4629629999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="11.45" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>184</v>
       </c>
       <c r="C40" s="23">
@@ -2877,25 +2945,25 @@
         <v>10</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L40" s="8"/>
       <c r="N40" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="O40" s="45">
+      <c r="O40" s="38">
         <v>5.4733799999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="11.45" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>186</v>
       </c>
       <c r="C41" s="23">
@@ -2909,25 +2977,25 @@
       </c>
       <c r="F41" s="28"/>
       <c r="I41" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L41" s="8"/>
       <c r="N41" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O41" s="45">
+      <c r="O41" s="38">
         <v>5.5219909999999997E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="11.45" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>187</v>
       </c>
       <c r="C42" s="23">
@@ -2941,10 +3009,10 @@
       </c>
       <c r="F42" s="28"/>
       <c r="I42" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K42" s="25" t="s">
         <v>41</v>
@@ -2953,13 +3021,13 @@
       <c r="N42" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O42" s="45">
+      <c r="O42" s="38">
         <v>5.5567129999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="11.45" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>188</v>
       </c>
       <c r="C43" s="23">
@@ -2974,25 +3042,25 @@
         <v>11</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L43" s="8"/>
       <c r="N43" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O43" s="45">
+      <c r="O43" s="38">
         <v>5.5810190000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="11.45" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>192</v>
       </c>
       <c r="C44" s="23">
@@ -3005,25 +3073,25 @@
         <v>12</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L44" s="8"/>
       <c r="N44" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="45">
+      <c r="O44" s="38">
         <v>5.7650460000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="11.45" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="37">
+      <c r="B45" s="36">
         <v>193</v>
       </c>
       <c r="C45" s="23">
@@ -3040,25 +3108,25 @@
         <v>13</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L45" s="8"/>
       <c r="N45" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="45">
+      <c r="O45" s="38">
         <v>5.7916670000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="11.45" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>194</v>
       </c>
       <c r="C46" s="23">
@@ -3072,10 +3140,10 @@
       </c>
       <c r="F46" s="28"/>
       <c r="I46" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K46" s="25" t="s">
         <v>41</v>
@@ -3084,13 +3152,13 @@
       <c r="N46" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="45">
+      <c r="O46" s="38">
         <v>5.832176E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="11.45" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="37">
+      <c r="B47" s="36">
         <v>197</v>
       </c>
       <c r="C47" s="23">
@@ -3104,25 +3172,25 @@
       </c>
       <c r="F47" s="28"/>
       <c r="I47" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L47" s="8"/>
       <c r="N47" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="38">
         <v>5.9687499999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="11.45" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="37"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="23"/>
       <c r="D48" s="29"/>
       <c r="E48" s="28"/>
@@ -3131,11 +3199,11 @@
       <c r="K48" s="24"/>
       <c r="L48" s="8"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="38"/>
+      <c r="O48" s="37"/>
     </row>
     <row r="49" spans="1:15" ht="11.45" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="37"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="23"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
@@ -3144,7 +3212,7 @@
       <c r="K49" s="24"/>
       <c r="L49" s="8"/>
       <c r="N49" s="25"/>
-      <c r="O49" s="38"/>
+      <c r="O49" s="37"/>
     </row>
     <row r="50" spans="1:15" ht="11.45" customHeight="1">
       <c r="A50" s="6"/>
@@ -7452,22 +7520,22 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>26</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>5</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>34</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <v>1</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <v>3</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="35">
         <v>15</v>
       </c>
     </row>
@@ -7475,22 +7543,22 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>28</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>7</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="35">
         <v>37</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>2</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <v>9</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="35">
         <v>16</v>
       </c>
     </row>
@@ -7498,20 +7566,20 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="E4" s="36">
+      <c r="C4" s="35"/>
+      <c r="E4" s="35">
         <v>10</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>43</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>4</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>11</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <v>29</v>
       </c>
     </row>
@@ -7519,18 +7587,18 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="E5" s="36">
+      <c r="C5" s="35"/>
+      <c r="E5" s="35">
         <v>20</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="I5" s="36">
+      <c r="G5" s="35"/>
+      <c r="I5" s="35">
         <v>6</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <v>12</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <v>44</v>
       </c>
     </row>
@@ -7538,17 +7606,17 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>31</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="I6" s="36">
+      <c r="G6" s="35"/>
+      <c r="I6" s="35">
         <v>8</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>13</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="35">
         <v>45</v>
       </c>
     </row>
@@ -7596,20 +7664,20 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>2</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="G15" s="36">
+      <c r="E15" s="35"/>
+      <c r="G15" s="35">
         <v>7</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>12</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <v>1</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="35">
         <v>4</v>
       </c>
     </row>
@@ -7617,16 +7685,16 @@
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>10</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>17</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <v>3</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <v>14</v>
       </c>
     </row>
@@ -7634,8 +7702,8 @@
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="K17" s="36">
+      <c r="I17" s="35"/>
+      <c r="K17" s="35">
         <v>5</v>
       </c>
     </row>
@@ -7708,22 +7776,22 @@
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>20</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <v>2</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="35">
         <v>27</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>1</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <v>6</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="35">
         <v>9</v>
       </c>
     </row>
@@ -7731,22 +7799,22 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>22</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="35">
         <v>4</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="35">
         <v>29</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <v>3</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="35">
         <v>7</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="35">
         <v>10</v>
       </c>
     </row>
@@ -7754,20 +7822,20 @@
       <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="E33" s="36">
+      <c r="C33" s="35"/>
+      <c r="E33" s="35">
         <v>5</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="35">
         <v>34</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <v>12</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>8</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="35">
         <v>23</v>
       </c>
     </row>
@@ -7775,16 +7843,16 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>14</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>13</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="35">
         <v>11</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="35">
         <v>35</v>
       </c>
     </row>
@@ -7817,22 +7885,22 @@
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>18</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <v>2</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="35">
         <v>23</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="35">
         <v>1</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="35">
         <v>4</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="35">
         <v>7</v>
       </c>
     </row>
@@ -7840,20 +7908,20 @@
       <c r="A41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="E41" s="36">
+      <c r="C41" s="35"/>
+      <c r="E41" s="35">
         <v>12</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="35">
         <v>27</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="35">
         <v>3</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <v>5</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="35">
         <v>8</v>
       </c>
     </row>
@@ -7861,17 +7929,17 @@
       <c r="A42" s="1">
         <v>3</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <v>20</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="I42" s="36">
+      <c r="G42" s="35"/>
+      <c r="I42" s="35">
         <v>10</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="35">
         <v>6</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="35">
         <v>28</v>
       </c>
     </row>
@@ -7899,18 +7967,18 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="E47" s="36">
+      <c r="C47" s="35"/>
+      <c r="E47" s="35">
         <v>6</v>
       </c>
       <c r="G47" s="32"/>
-      <c r="I47" s="36">
+      <c r="I47" s="35">
         <v>3</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="35">
         <v>2</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="35">
         <v>1</v>
       </c>
     </row>
@@ -7920,10 +7988,10 @@
       </c>
       <c r="E48" s="32"/>
       <c r="G48" s="32"/>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>4</v>
       </c>
-      <c r="K48" s="36"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:15" ht="12" customHeight="1">
       <c r="A49" s="1">
@@ -7957,7 +8025,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B29"/>
     </sheetView>
   </sheetViews>
@@ -7978,13 +8046,13 @@
       <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>25</v>
       </c>
     </row>
@@ -7992,13 +8060,13 @@
       <c r="A4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>29</v>
       </c>
     </row>
@@ -8006,13 +8074,13 @@
       <c r="A5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>32</v>
       </c>
     </row>
@@ -8020,13 +8088,13 @@
       <c r="A6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>77</v>
       </c>
     </row>
@@ -8034,13 +8102,13 @@
       <c r="A7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>90</v>
       </c>
     </row>
@@ -8048,13 +8116,13 @@
       <c r="A8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>42</v>
       </c>
     </row>
@@ -8062,13 +8130,13 @@
       <c r="A9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8084,13 +8152,13 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>7</v>
       </c>
     </row>
@@ -8098,13 +8166,13 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>1</v>
       </c>
     </row>
@@ -8112,13 +8180,13 @@
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>2</v>
       </c>
     </row>
@@ -8126,13 +8194,13 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>6</v>
       </c>
     </row>
@@ -8140,13 +8208,13 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8154,13 +8222,13 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8168,13 +8236,13 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
     </row>
@@ -8190,7 +8258,7 @@
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>9</v>
       </c>
       <c r="E23" s="3"/>
@@ -8199,7 +8267,7 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>17</v>
       </c>
       <c r="E24" s="3"/>
@@ -8208,7 +8276,7 @@
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>18</v>
       </c>
       <c r="E25" s="3"/>
@@ -8217,7 +8285,7 @@
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>29</v>
       </c>
       <c r="E26" s="3"/>
@@ -8226,7 +8294,7 @@
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
@@ -8235,7 +8303,7 @@
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>0</v>
       </c>
       <c r="E28" s="3"/>
@@ -8244,7 +8312,7 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
@@ -8271,8 +8339,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="A4:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -8282,16 +8350,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="28.5">
       <c r="B1" s="34" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -8304,53 +8372,144 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="14.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="A4" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="33">
+        <v>7</v>
+      </c>
+      <c r="C4" s="33">
+        <v>7</v>
+      </c>
+      <c r="D4" s="33">
+        <v>7</v>
+      </c>
+      <c r="E4" s="33">
+        <v>7</v>
+      </c>
+      <c r="F4" s="33">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="A5" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="33">
+        <v>6</v>
+      </c>
+      <c r="C5" s="33">
+        <v>6</v>
+      </c>
+      <c r="D5" s="33">
+        <v>6</v>
+      </c>
+      <c r="E5" s="33">
+        <v>6</v>
+      </c>
+      <c r="F5" s="33">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="A6" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="33">
+        <v>5</v>
+      </c>
+      <c r="D6" s="33">
+        <v>5</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5</v>
+      </c>
+      <c r="F6" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="A7" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="33">
+        <v>2</v>
+      </c>
+      <c r="C7" s="33">
+        <v>4</v>
+      </c>
+      <c r="D7" s="33">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="A8" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="33">
+        <v>3</v>
+      </c>
+      <c r="C8" s="33">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33">
+        <v>4</v>
+      </c>
+      <c r="E8" s="33">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="A9" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="33">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="14.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
@@ -8359,53 +8518,144 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="33">
+        <v>7</v>
+      </c>
+      <c r="C13" s="33">
+        <v>6</v>
+      </c>
+      <c r="D13" s="33">
+        <v>7</v>
+      </c>
+      <c r="E13" s="33">
+        <v>7</v>
+      </c>
+      <c r="F13" s="33">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="33">
+        <v>6</v>
+      </c>
+      <c r="C14" s="33">
+        <v>7</v>
+      </c>
+      <c r="D14" s="33">
+        <v>6</v>
+      </c>
+      <c r="E14" s="33">
+        <v>6</v>
+      </c>
+      <c r="F14" s="33">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="33">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33">
+        <v>5</v>
+      </c>
+      <c r="D15" s="33">
+        <v>5</v>
+      </c>
+      <c r="E15" s="33">
+        <v>4</v>
+      </c>
+      <c r="F15" s="33">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="A16" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="33">
+        <v>3</v>
+      </c>
+      <c r="C16" s="33">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33">
+        <v>4</v>
+      </c>
+      <c r="E16" s="33">
+        <v>5</v>
+      </c>
+      <c r="F16" s="33">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="33">
+        <v>5</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
+        <v>3</v>
+      </c>
+      <c r="F17" s="33">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="33">
+        <v>4</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="33">
+        <v>0</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
@@ -8420,53 +8670,144 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="14.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="33">
+        <v>7</v>
+      </c>
+      <c r="C31" s="33">
+        <v>7</v>
+      </c>
+      <c r="D31" s="33">
+        <v>7</v>
+      </c>
+      <c r="E31" s="33">
+        <v>7</v>
+      </c>
+      <c r="F31" s="33">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="33">
+        <v>6</v>
+      </c>
+      <c r="C32" s="33">
+        <v>6</v>
+      </c>
+      <c r="D32" s="33">
+        <v>6</v>
+      </c>
+      <c r="E32" s="33">
+        <v>6</v>
+      </c>
+      <c r="F32" s="33">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="33">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="33">
+        <v>4</v>
+      </c>
+      <c r="C34" s="33">
+        <v>4</v>
+      </c>
+      <c r="D34" s="33">
+        <v>4</v>
+      </c>
+      <c r="E34" s="33">
+        <v>4</v>
+      </c>
+      <c r="F34" s="33">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="33">
+        <v>2</v>
+      </c>
+      <c r="C35" s="33">
+        <v>3</v>
+      </c>
+      <c r="D35" s="33">
+        <v>3</v>
+      </c>
+      <c r="E35" s="33">
+        <v>3</v>
+      </c>
+      <c r="F35" s="33">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="33">
+        <v>3</v>
+      </c>
+      <c r="C36" s="33">
+        <v>2</v>
+      </c>
+      <c r="D36" s="33">
+        <v>2</v>
+      </c>
+      <c r="E36" s="33">
+        <v>2</v>
+      </c>
+      <c r="F36" s="33">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="14.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="A37" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="33">
+        <v>0</v>
+      </c>
+      <c r="C37" s="33">
+        <v>0</v>
+      </c>
+      <c r="D37" s="33">
+        <v>0</v>
+      </c>
+      <c r="E37" s="33">
+        <v>0</v>
+      </c>
+      <c r="F37" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
@@ -8475,53 +8816,144 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="14.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="33">
+        <v>7</v>
+      </c>
+      <c r="C40" s="33">
+        <v>7</v>
+      </c>
+      <c r="D40" s="33">
+        <v>7</v>
+      </c>
+      <c r="E40" s="33">
+        <v>7</v>
+      </c>
+      <c r="F40" s="33">
+        <v>28</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="14.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="A41" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="33">
+        <v>6</v>
+      </c>
+      <c r="C41" s="33">
+        <v>5</v>
+      </c>
+      <c r="D41" s="33">
+        <v>6</v>
+      </c>
+      <c r="E41" s="33">
+        <v>6</v>
+      </c>
+      <c r="F41" s="33">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="14.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="A42" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="33">
+        <v>5</v>
+      </c>
+      <c r="C42" s="33">
+        <v>6</v>
+      </c>
+      <c r="D42" s="33">
+        <v>5</v>
+      </c>
+      <c r="E42" s="33">
+        <v>5</v>
+      </c>
+      <c r="F42" s="33">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="14.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="A43" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="33">
+        <v>4</v>
+      </c>
+      <c r="C43" s="33">
+        <v>4</v>
+      </c>
+      <c r="D43" s="33">
+        <v>4</v>
+      </c>
+      <c r="E43" s="33">
+        <v>4</v>
+      </c>
+      <c r="F43" s="33">
+        <v>16</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="14.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="A44" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="33">
+        <v>3</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2</v>
+      </c>
+      <c r="D44" s="33">
+        <v>3</v>
+      </c>
+      <c r="E44" s="33">
+        <v>2</v>
+      </c>
+      <c r="F44" s="33">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="14.25">
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="A45" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="33">
+        <v>0</v>
+      </c>
+      <c r="C45" s="33">
+        <v>3</v>
+      </c>
+      <c r="D45" s="33">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33">
+        <v>0</v>
+      </c>
+      <c r="F45" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="14.25">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="A46" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="33">
+        <v>0</v>
+      </c>
+      <c r="C46" s="33">
+        <v>0</v>
+      </c>
+      <c r="D46" s="33">
+        <v>0</v>
+      </c>
+      <c r="E46" s="33">
+        <v>0</v>
+      </c>
+      <c r="F46" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
@@ -8529,54 +8961,145 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="2:6" ht="14.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="2:6" ht="14.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51" spans="2:6" ht="14.25">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="2:6" ht="14.25">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="2:6" ht="14.25">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-    </row>
-    <row r="54" spans="2:6" ht="14.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-    </row>
-    <row r="55" spans="2:6" ht="14.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+    <row r="49" spans="1:6" ht="14.25">
+      <c r="A49" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="33">
+        <v>7</v>
+      </c>
+      <c r="C49" s="33">
+        <v>6</v>
+      </c>
+      <c r="D49" s="33">
+        <v>7</v>
+      </c>
+      <c r="E49" s="33">
+        <v>7</v>
+      </c>
+      <c r="F49" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25">
+      <c r="A50" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="33">
+        <v>5</v>
+      </c>
+      <c r="C50" s="33">
+        <v>7</v>
+      </c>
+      <c r="D50" s="33">
+        <v>6</v>
+      </c>
+      <c r="E50" s="33">
+        <v>6</v>
+      </c>
+      <c r="F50" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25">
+      <c r="A51" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="33">
+        <v>4</v>
+      </c>
+      <c r="C51" s="33">
+        <v>5</v>
+      </c>
+      <c r="D51" s="33">
+        <v>4</v>
+      </c>
+      <c r="E51" s="33">
+        <v>4</v>
+      </c>
+      <c r="F51" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25">
+      <c r="A52" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="33">
+        <v>3</v>
+      </c>
+      <c r="C52" s="33">
+        <v>0</v>
+      </c>
+      <c r="D52" s="33">
+        <v>5</v>
+      </c>
+      <c r="E52" s="33">
+        <v>5</v>
+      </c>
+      <c r="F52" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25">
+      <c r="A53" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="33">
+        <v>6</v>
+      </c>
+      <c r="C53" s="33">
+        <v>4</v>
+      </c>
+      <c r="D53" s="33">
+        <v>0</v>
+      </c>
+      <c r="E53" s="33">
+        <v>0</v>
+      </c>
+      <c r="F53" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25">
+      <c r="A54" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="33">
+        <v>0</v>
+      </c>
+      <c r="C54" s="33">
+        <v>3</v>
+      </c>
+      <c r="D54" s="33">
+        <v>0</v>
+      </c>
+      <c r="E54" s="33">
+        <v>0</v>
+      </c>
+      <c r="F54" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25">
+      <c r="A55" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="33">
+        <v>0</v>
+      </c>
+      <c r="C55" s="33">
+        <v>0</v>
+      </c>
+      <c r="D55" s="33">
+        <v>0</v>
+      </c>
+      <c r="E55" s="33">
+        <v>0</v>
+      </c>
+      <c r="F55" s="33">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:L55">
